--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-782202.3778031374</v>
+        <v>-785082.7059631402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371385</v>
+        <v>10036405.55371384</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.64612166063908</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>132.2154096620444</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>348.0837042213236</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.26252137233833</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>121.0252690996995</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>345.7391953217026</v>
       </c>
       <c r="G8" t="n">
-        <v>396.0282731785567</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>97.43077510209353</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.5295555287327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374745</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.93818273716728</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1546,7 +1546,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>175.2324354739135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>22.01943279781178</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>168.1074334369711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.5350548422558</v>
       </c>
       <c r="X19" t="n">
-        <v>161.6612063773015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>56.93249644768142</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.4305686513567</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.19831151749362</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>23.94516103139972</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>109.040488224226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1543.155461091169</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C2" t="n">
-        <v>1543.155461091169</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.889762484419</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>514.6886206349116</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>187.4939006709144</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>924.2198584148889</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>565.9541598081385</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>565.9541598081385</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>559.008659058935</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2648.399069430002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2648.399069430002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2648.399069430002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2648.399069430002</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.336182086431</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.567526816317</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576.4643184947033</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C7" t="n">
-        <v>576.4643184947033</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3476790823676</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>576.4643184947033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>576.4643184947033</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>576.4643184947033</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>576.4643184947033</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>576.4643184947033</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>576.4643184947033</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.4643184947033</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.385938321513</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.423421381101</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.423421381101</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="E8" t="n">
-        <v>1018.423421381101</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="F8" t="n">
-        <v>607.4375165914937</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.985778385635</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.985778385635</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>2313.924484908478</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>2313.924484908478</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>2313.924484908478</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>2167.034537410568</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>2167.034537410568</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>2482.860667836385</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
         <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
         <v>572.0050724668117</v>
@@ -5133,10 +5133,10 @@
         <v>2276.851722962027</v>
       </c>
       <c r="O12" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.791123359144</v>
+        <v>852.0312736743721</v>
       </c>
       <c r="C13" t="n">
-        <v>847.854940431237</v>
+        <v>683.0950907464652</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7383010189012</v>
+        <v>532.9784513341294</v>
       </c>
       <c r="E13" t="n">
-        <v>549.8252074365081</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
@@ -5224,25 +5224,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.412499335695</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>2140.336285650421</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.651797444534</v>
+        <v>1771.87903858312</v>
       </c>
       <c r="W13" t="n">
-        <v>1596.234627407574</v>
+        <v>1482.461868546159</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.232167332914</v>
+        <v>1254.472317648142</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.439588189384</v>
+        <v>1033.679738504612</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5264,43 +5264,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
         <v>4606.950144347201</v>
@@ -5312,7 +5312,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
         <v>3468.466124132384</v>
@@ -5321,7 +5321,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953583</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N15" t="n">
-        <v>1776.374605710325</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O15" t="n">
-        <v>2323.25108071052</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2473.567771237115</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.791123359144</v>
+        <v>654.5023284669179</v>
       </c>
       <c r="C16" t="n">
-        <v>847.854940431237</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D16" t="n">
-        <v>697.7383010189012</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E16" t="n">
-        <v>549.8252074365081</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5443,43 +5443,43 @@
         <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033125</v>
       </c>
       <c r="T16" t="n">
-        <v>2429.412499335695</v>
+        <v>1958.704181747507</v>
       </c>
       <c r="U16" t="n">
-        <v>2140.336285650421</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V16" t="n">
-        <v>1885.651797444534</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W16" t="n">
-        <v>1596.234627407574</v>
+        <v>1125.526309819386</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.245076509556</v>
+        <v>897.536758921369</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778389</v>
       </c>
     </row>
     <row r="17">
@@ -5501,43 +5501,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160738</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946798</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
         <v>4606.9501443472</v>
@@ -5583,34 +5583,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L18" t="n">
-        <v>142.6767696327819</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849103</v>
+        <v>1164.023426718937</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284247</v>
+        <v>1786.119390118272</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2332.995865118465</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.79111798976</v>
+        <v>577.9118194873282</v>
       </c>
       <c r="C19" t="n">
-        <v>390.8549350618531</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7382956495174</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.52630981939</v>
+        <v>1208.342414359116</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2321619635298</v>
+        <v>980.3528634610981</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4395828199997</v>
+        <v>759.5602843175679</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,43 +5738,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516067</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.344223650719</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074383997</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883209</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
         <v>4606.9501443472</v>
@@ -5820,34 +5820,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L21" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310561</v>
       </c>
       <c r="M21" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.755759562687</v>
       </c>
       <c r="N21" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.755759562687</v>
       </c>
       <c r="O21" t="n">
-        <v>2053.984252811039</v>
+        <v>2201.632234562881</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.8780297767507</v>
+        <v>784.5128849845564</v>
       </c>
       <c r="C22" t="n">
-        <v>699.9418468488439</v>
+        <v>615.5767020566495</v>
       </c>
       <c r="D22" t="n">
-        <v>549.8252074365081</v>
+        <v>465.4600626443138</v>
       </c>
       <c r="E22" t="n">
-        <v>549.8252074365081</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="X22" t="n">
-        <v>1193.385654860886</v>
+        <v>1186.953928958326</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.52649460699</v>
+        <v>966.1613498147962</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516067</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.344223650719</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892104</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1513.293909294984</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.29847123402</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.583449151125</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q23" t="n">
         <v>4566.333620403614</v>
@@ -6057,31 +6057,31 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="L24" t="n">
-        <v>915.089423558717</v>
+        <v>732.2286627472029</v>
       </c>
       <c r="M24" t="n">
-        <v>1507.107777810845</v>
+        <v>1324.247016999329</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.203741210181</v>
+        <v>1946.342980398664</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>2493.219455398857</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.1252502501684</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="C25" t="n">
-        <v>577.1890673222615</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="D25" t="n">
-        <v>530.5241061934801</v>
+        <v>412.8384205767587</v>
       </c>
       <c r="E25" t="n">
-        <v>382.6110126110869</v>
+        <v>264.9253269943656</v>
       </c>
       <c r="F25" t="n">
-        <v>235.7210651131766</v>
+        <v>118.0353794964552</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>118.0353794964552</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T25" t="n">
-        <v>2209.733717050076</v>
+        <v>2026.563526789002</v>
       </c>
       <c r="U25" t="n">
-        <v>1920.657503364803</v>
+        <v>1737.487313103729</v>
       </c>
       <c r="V25" t="n">
-        <v>1665.973015158916</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="W25" t="n">
-        <v>1376.555845121956</v>
+        <v>1193.385654860882</v>
       </c>
       <c r="X25" t="n">
-        <v>1148.566294223938</v>
+        <v>965.3961039628643</v>
       </c>
       <c r="Y25" t="n">
-        <v>927.7737150804081</v>
+        <v>744.6035248193342</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6552,10 +6552,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>379.6759351444941</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>212.4798358593741</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6783,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
         <v>1577.52840832642</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,40 +7093,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380738</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973198</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7409,22 +7409,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,19 +7491,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717214</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.31264782908261</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782910097</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>51.31264782910159</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>51.31264782910165</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-4.203141419225729e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.0877200028415</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>268.38146822781</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19.71590658281681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.62035305646657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.49577990940189</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>50.47721991512364</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>157.8125473841255</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.47721991512373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>81.98794349433521</v>
       </c>
       <c r="X19" t="n">
-        <v>64.04844901173561</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>89.50146619888775</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.15408470073811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.4171615007187</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>116.5088287605542</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>22.81817176293568</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186814.8360194933</v>
+        <v>186814.8360194934</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221837.8187076037</v>
+        <v>221837.8187076038</v>
       </c>
       <c r="F2" t="n">
-        <v>221837.8187076037</v>
+        <v>221837.8187076038</v>
       </c>
       <c r="G2" t="n">
+        <v>221837.8187076039</v>
+      </c>
+      <c r="H2" t="n">
         <v>221837.8187076038</v>
-      </c>
-      <c r="H2" t="n">
-        <v>221837.8187076037</v>
       </c>
       <c r="I2" t="n">
         <v>221837.8187076038</v>
@@ -26344,16 +26344,16 @@
         <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.237460537595325e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792226</v>
+        <v>183669.0093792242</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869545</v>
+        <v>120178.1964869546</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855118</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894854999</v>
+        <v>5781.971894855255</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855167</v>
+        <v>5781.971894855264</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.971894855265</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
+        <v>13058.45186476388</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476392</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>13058.45186476393</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="G5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
         <v>100930.0394572385</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606190.317745415</v>
+        <v>-606544.6054789895</v>
       </c>
       <c r="C6" t="n">
-        <v>-58137.09727846307</v>
+        <v>-58137.09727846301</v>
       </c>
       <c r="D6" t="n">
         <v>-58137.09727846304</v>
       </c>
       <c r="E6" t="n">
-        <v>-821383.8580990022</v>
+        <v>-821419.7550808664</v>
       </c>
       <c r="F6" t="n">
-        <v>115125.80735551</v>
+        <v>115089.9103736458</v>
       </c>
       <c r="G6" t="n">
-        <v>115125.807355509</v>
+        <v>115089.9103736474</v>
       </c>
       <c r="H6" t="n">
-        <v>115125.8073555112</v>
+        <v>115089.9103736458</v>
       </c>
       <c r="I6" t="n">
-        <v>115125.8073555101</v>
+        <v>115089.9103736458</v>
       </c>
       <c r="J6" t="n">
-        <v>-67893.81689004849</v>
+        <v>-67928.55481548581</v>
       </c>
       <c r="K6" t="n">
-        <v>115775.1924891742</v>
+        <v>115740.4545637385</v>
       </c>
       <c r="L6" t="n">
-        <v>90136.20100036691</v>
+        <v>90136.20100036697</v>
       </c>
       <c r="M6" t="n">
-        <v>-14743.29239613844</v>
+        <v>-14743.29239613858</v>
       </c>
       <c r="N6" t="n">
         <v>109563.9189939988</v>
@@ -26561,7 +26561,7 @@
         <v>109563.9189939988</v>
       </c>
       <c r="P6" t="n">
-        <v>109563.9189939987</v>
+        <v>109563.9189939988</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26750,13 +26750,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>-4.502277185383093e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.243715666544949e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625290421</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591163</v>
+        <v>673.8912089591161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>113.5489018444518</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>361.617585599587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014699</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>65.70046579947143</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.215881202473369</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>5.940996995934682</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>91.12026985031939</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>61.13685042000884</v>
       </c>
       <c r="G8" t="n">
-        <v>17.75589684223831</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>58.74011373970161</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.0550978233621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31853,13 +31853,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>189.4642825742353</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
@@ -32087,16 +32087,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>737.1756216417568</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>221.0369088927402</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396468</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504309</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198246</v>
+        <v>357.0213665833213</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P21" t="n">
-        <v>405.9611022622905</v>
+        <v>489.7119024980533</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O24" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>195.1793561990867</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,19 +33503,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,10 +34211,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955309</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35501,13 +35501,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>46.86803812979091</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
@@ -35735,16 +35735,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>605.8339095584236</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>81.0551348067187</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.464234388342</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N17" t="n">
-        <v>796.0449487554536</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977259</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839158</v>
+        <v>223.046959168991</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425833</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P21" t="n">
-        <v>271.9866948479602</v>
+        <v>355.737495083723</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671631</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955309</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O24" t="n">
-        <v>428.8975893793793</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>61.20494878475642</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
